--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_HayHue.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_HayHue.xlsx
@@ -716,30 +716,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -757,6 +733,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1100,41 +1100,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1179,58 +1179,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1255,23 +1255,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1297,7 +1297,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1328,7 +1328,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1444,7 +1444,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1504,7 +1504,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1533,7 +1533,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3307,6 +3307,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3318,13 +3325,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3368,39 +3368,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3445,58 +3445,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3521,23 +3521,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3563,7 +3563,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3594,7 +3594,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3652,7 +3652,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3681,7 +3681,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3710,7 +3710,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3770,7 +3770,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3799,7 +3799,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3828,7 +3828,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3857,7 +3857,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5573,13 +5573,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5591,6 +5584,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5634,39 +5634,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5711,58 +5711,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5787,23 +5787,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5829,7 +5829,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5860,7 +5860,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5889,7 +5889,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5918,7 +5918,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5947,7 +5947,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5976,7 +5976,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6005,7 +6005,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6036,7 +6036,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6065,7 +6065,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6094,7 +6094,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6123,7 +6123,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7839,13 +7839,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7857,6 +7850,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7900,39 +7900,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7977,58 +7977,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8053,23 +8053,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8095,7 +8095,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8126,7 +8126,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8155,7 +8155,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8184,7 +8184,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8213,7 +8213,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8242,7 +8242,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8271,7 +8271,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8302,7 +8302,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8331,7 +8331,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8360,7 +8360,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8389,7 +8389,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10105,13 +10105,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10123,6 +10116,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10133,8 +10133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10166,41 +10166,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10245,58 +10245,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10321,23 +10321,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10347,7 +10347,9 @@
       <c r="B6" s="61">
         <v>44823</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44824</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
       </c>
@@ -10387,7 +10389,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10418,7 +10420,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10447,7 +10449,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10476,7 +10478,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10505,7 +10507,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10534,7 +10536,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10563,7 +10565,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10594,7 +10596,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10623,7 +10625,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10652,7 +10654,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10681,7 +10683,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12397,13 +12399,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12415,6 +12410,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12458,39 +12460,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12535,58 +12537,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12611,23 +12613,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12653,7 +12655,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12684,7 +12686,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12713,7 +12715,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12742,7 +12744,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12771,7 +12773,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12800,7 +12802,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12829,7 +12831,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12860,7 +12862,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12889,7 +12891,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12918,7 +12920,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12947,7 +12949,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14663,13 +14665,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14681,6 +14676,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14724,39 +14726,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14801,58 +14803,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14877,23 +14879,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14919,7 +14921,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14950,7 +14952,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14979,7 +14981,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15008,7 +15010,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15037,7 +15039,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15066,7 +15068,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15095,7 +15097,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15126,7 +15128,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15155,7 +15157,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15184,7 +15186,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15213,7 +15215,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16929,13 +16931,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16947,6 +16942,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16990,39 +16992,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17067,58 +17069,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17143,23 +17145,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17185,7 +17187,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17216,7 +17218,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17245,7 +17247,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17274,7 +17276,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17303,7 +17305,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17332,7 +17334,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17361,7 +17363,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17392,7 +17394,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17421,7 +17423,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17450,7 +17452,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17479,7 +17481,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19195,13 +19197,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19213,6 +19208,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19256,39 +19258,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19333,58 +19335,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19409,23 +19411,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19451,7 +19453,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19482,7 +19484,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19511,7 +19513,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19540,7 +19542,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19569,7 +19571,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19598,7 +19600,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19627,7 +19629,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19658,7 +19660,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19687,7 +19689,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19716,7 +19718,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19745,7 +19747,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20976,6 +20978,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20987,13 +20996,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
